--- a/Lista libros SOS.xlsx
+++ b/Lista libros SOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\IVA-Compras-y-Ventas-PDF-y-TXT-de-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7868D4A1-5A30-4656-8031-E4AD9A119764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCC527A-98AC-443B-9DCB-20349FCD90E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Listado" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$R$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$W$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="32">
   <si>
     <t>Nro</t>
   </si>
@@ -119,6 +119,21 @@
   </si>
   <si>
     <t>PER</t>
+  </si>
+  <si>
+    <t>Ubicación TXT</t>
+  </si>
+  <si>
+    <t>TXT LIV C</t>
+  </si>
+  <si>
+    <t>TXT LIV A</t>
+  </si>
+  <si>
+    <t>TXT LIC C</t>
+  </si>
+  <si>
+    <t>TXT LIC A</t>
   </si>
 </sst>
 </file>
@@ -460,11 +475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,10 +497,10 @@
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="18.42578125" customWidth="1"/>
     <col min="16" max="17" width="16.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,10 +553,25 @@
         <v>9</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>9</v>
@@ -573,8 +603,8 @@
         <v>25</v>
       </c>
       <c r="L2" s="4" t="str">
-        <f>K2&amp;"\Libros Compras y Ventas\"&amp;B2&amp;"\"&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\Libros Compras y Ventas\XXXXXX - 9\2022\09\</v>
+        <f>K2&amp;"\Libros Compras y Ventas\"&amp;B2&amp;"\"&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\PDF\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\Libros Compras y Ventas\XXXXXX - 9\2022\09\PDF\</v>
       </c>
       <c r="M2" s="4" t="str">
         <f>TEXT(MONTH(E2),"00")&amp;"/"&amp;YEAR(E2)</f>
@@ -596,18 +626,38 @@
         <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",O2," - ",B2)</f>
         <v>9 - 20000000009 - LIC - 202209 - XXXXXX - 9</v>
       </c>
-      <c r="R2" s="4">
-        <f t="shared" ref="R2:R33" si="1">ROW(A2)</f>
+      <c r="R2" s="4" t="str">
+        <f>K2&amp;"\Libros Compras y Ventas\"&amp;B2&amp;"\"&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\TXT\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\Libros Compras y Ventas\XXXXXX - 9\2022\09\TXT\</v>
+      </c>
+      <c r="S2" s="4" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",TEXT(O2,"AAAAMM")," - ",B2," SOS.txt")</f>
+        <v>9 - 20000000009 - LIV - 245308 - XXXXXX - 9 SOS.txt</v>
+      </c>
+      <c r="T2" s="4" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",TEXT(O2,"AAAAMM")," - ",B2," Alicuota SOS.txt")</f>
+        <v>9 - 20000000009 - LIV - 245308 - XXXXXX - 9 Alicuota SOS.txt</v>
+      </c>
+      <c r="U2" s="4" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",TEXT(O2,"AAAAMM")," - ",B2," SOS.txt")</f>
+        <v>9 - 20000000009 - LIC - 245308 - XXXXXX - 9 SOS.txt</v>
+      </c>
+      <c r="V2" s="4" t="str">
+        <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",TEXT(O2,"AAAAMM")," - ",B2," Alicuota SOS.txt")</f>
+        <v>9 - 20000000009 - LIC - 245308 - XXXXXX - 9 Alicuota SOS.txt</v>
+      </c>
+      <c r="W2" s="4">
+        <f>ROW(A2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="2">"XXXXXX - "&amp;A3</f>
+        <f t="shared" ref="B3:B66" si="1">"XXXXXX - "&amp;A3</f>
         <v>XXXXXX - 9</v>
       </c>
       <c r="C3">
@@ -627,41 +677,61 @@
         <v>16</v>
       </c>
       <c r="L3" s="4" t="str">
-        <f t="shared" ref="L3:L66" si="3">K3&amp;"\Libros Compras y Ventas\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
-        <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\</v>
+        <f t="shared" ref="L3:L66" si="2">K3&amp;"\Libros Compras y Ventas\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\PDF\"</f>
+        <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\PDF\</v>
       </c>
       <c r="M3" s="4" t="str">
         <f>TEXT(MONTH(E3),"00")&amp;"/"&amp;YEAR(E3)</f>
         <v>09/2022</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N66" si="4">PROPER(TEXT(E3,"mmmm"))&amp;" "&amp;YEAR(E3)</f>
+        <f t="shared" ref="N3:N66" si="3">PROPER(TEXT(E3,"mmmm"))&amp;" "&amp;YEAR(E3)</f>
         <v>Septiembre 2022</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O66" si="5">YEAR(E3)&amp;TEXT(MONTH(E3),"00")</f>
+        <f t="shared" ref="O3:O66" si="4">YEAR(E3)&amp;TEXT(MONTH(E3),"00")</f>
         <v>202209</v>
       </c>
       <c r="P3" s="2" t="str">
-        <f t="shared" ref="P3:P66" si="6">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",O3," - ",B3)</f>
+        <f t="shared" ref="P3:P66" si="5">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",O3," - ",B3)</f>
         <v>9 - 20000000009 - LIV - 202209 - XXXXXX - 9</v>
       </c>
       <c r="Q3" s="2" t="str">
-        <f t="shared" ref="Q3:Q66" si="7">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",O3," - ",B3)</f>
+        <f t="shared" ref="Q3:Q66" si="6">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",O3," - ",B3)</f>
         <v>9 - 20000000009 - LIC - 202209 - XXXXXX - 9</v>
       </c>
-      <c r="R3" s="4">
-        <f t="shared" si="1"/>
+      <c r="R3" s="4" t="str">
+        <f t="shared" ref="R3:R66" si="7">K3&amp;"\Libros Compras y Ventas\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\TXT\"</f>
+        <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\TXT\</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f t="shared" ref="S3:S66" si="8">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",TEXT(O3,"AAAAMM")," - ",B3," SOS.txt")</f>
+        <v>9 - 20000000009 - LIV - 245308 - XXXXXX - 9 SOS.txt</v>
+      </c>
+      <c r="T3" s="4" t="str">
+        <f t="shared" ref="T3:T66" si="9">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",TEXT(O3,"AAAAMM")," - ",B3," Alicuota SOS.txt")</f>
+        <v>9 - 20000000009 - LIV - 245308 - XXXXXX - 9 Alicuota SOS.txt</v>
+      </c>
+      <c r="U3" s="4" t="str">
+        <f t="shared" ref="U3:U66" si="10">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",TEXT(O3,"AAAAMM")," - ",B3," SOS.txt")</f>
+        <v>9 - 20000000009 - LIC - 245308 - XXXXXX - 9 SOS.txt</v>
+      </c>
+      <c r="V3" s="4" t="str">
+        <f t="shared" ref="V3:V66" si="11">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",TEXT(O3,"AAAAMM")," - ",B3," Alicuota SOS.txt")</f>
+        <v>9 - 20000000009 - LIC - 245308 - XXXXXX - 9 Alicuota SOS.txt</v>
+      </c>
+      <c r="W3" s="4">
+        <f>ROW(A3)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 9</v>
       </c>
       <c r="C4">
@@ -681,41 +751,61 @@
         <v>15</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\PDF\</v>
       </c>
       <c r="M4" s="4" t="str">
-        <f t="shared" ref="M4:M67" si="8">TEXT(MONTH(E4),"00")&amp;"/"&amp;YEAR(E4)</f>
+        <f t="shared" ref="M4:M67" si="12">TEXT(MONTH(E4),"00")&amp;"/"&amp;YEAR(E4)</f>
         <v>09/2022</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P4" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9 - 20000000009 - LIV - 202209 - XXXXXX - 9</v>
       </c>
       <c r="Q4" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9 - 20000000009 - LIC - 202209 - XXXXXX - 9</v>
       </c>
-      <c r="R4" s="4">
-        <f t="shared" si="1"/>
+      <c r="R4" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\TXT\</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>9 - 20000000009 - LIV - 245308 - XXXXXX - 9 SOS.txt</v>
+      </c>
+      <c r="T4" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>9 - 20000000009 - LIV - 245308 - XXXXXX - 9 Alicuota SOS.txt</v>
+      </c>
+      <c r="U4" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>9 - 20000000009 - LIC - 245308 - XXXXXX - 9 SOS.txt</v>
+      </c>
+      <c r="V4" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>9 - 20000000009 - LIC - 245308 - XXXXXX - 9 Alicuota SOS.txt</v>
+      </c>
+      <c r="W4" s="4">
+        <f>ROW(A4)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C5">
@@ -734,41 +824,61 @@
         <v>15</v>
       </c>
       <c r="L5" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M5" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N5" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P5" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q5" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T5" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U5" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V5" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W5" s="4">
+        <f>ROW(A5)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C6">
@@ -787,41 +897,61 @@
         <v>16</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M6" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P6" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q6" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T6" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U6" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V6" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W6" s="4">
+        <f>ROW(A6)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C7">
@@ -840,41 +970,61 @@
         <v>16</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M7" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P7" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q7" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T7" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U7" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V7" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W7" s="4">
+        <f>ROW(A7)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C8">
@@ -893,41 +1043,61 @@
         <v>16</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M8" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P8" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q8" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S8" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T8" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U8" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V8" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W8" s="4">
+        <f>ROW(A8)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C9">
@@ -946,41 +1116,61 @@
         <v>16</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M9" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P9" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q9" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S9" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T9" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U9" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V9" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W9" s="4">
+        <f>ROW(A9)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C10">
@@ -999,41 +1189,61 @@
         <v>16</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M10" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P10" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q10" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T10" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U10" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V10" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W10" s="4">
+        <f>ROW(A10)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C11">
@@ -1052,41 +1262,61 @@
         <v>15</v>
       </c>
       <c r="L11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M11" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P11" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q11" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R11" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S11" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T11" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U11" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V11" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W11" s="4">
+        <f>ROW(A11)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C12">
@@ -1105,41 +1335,61 @@
         <v>16</v>
       </c>
       <c r="L12" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M12" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P12" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q12" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R12" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S12" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T12" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U12" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V12" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W12" s="4">
+        <f>ROW(A12)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C13">
@@ -1158,41 +1408,61 @@
         <v>16</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M13" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P13" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q13" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R13" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S13" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T13" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U13" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V13" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W13" s="4">
+        <f>ROW(A13)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C14">
@@ -1211,41 +1481,61 @@
         <v>15</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M14" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P14" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q14" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R14" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S14" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T14" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U14" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V14" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W14" s="4">
+        <f>ROW(A14)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C15">
@@ -1267,41 +1557,61 @@
         <v>14</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M15" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N15" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P15" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q15" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R15" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S15" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T15" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U15" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V15" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W15" s="4">
+        <f>ROW(A15)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C16">
@@ -1320,41 +1630,61 @@
         <v>16</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M16" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P16" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q16" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R16" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S16" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T16" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U16" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V16" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W16" s="4">
+        <f>ROW(A16)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C17">
@@ -1376,41 +1706,61 @@
         <v>21</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\PDF\</v>
       </c>
       <c r="M17" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>07/2022</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Julio 2022</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202207</v>
       </c>
       <c r="P17" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202207 - XXXXXX - 0</v>
       </c>
       <c r="Q17" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0 - 30000000000 - LIC - 202207 - XXXXXX - 0</v>
       </c>
-      <c r="R17" s="4">
-        <f t="shared" si="1"/>
+      <c r="R17" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\TXT\</v>
+      </c>
+      <c r="S17" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T17" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U17" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V17" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W17" s="4">
+        <f>ROW(A17)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C18">
@@ -1429,41 +1779,61 @@
         <v>16</v>
       </c>
       <c r="L18" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M18" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N18" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P18" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q18" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R18" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S18" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T18" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U18" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V18" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W18" s="4">
+        <f>ROW(A18)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C19">
@@ -1482,41 +1852,61 @@
         <v>16</v>
       </c>
       <c r="L19" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M19" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N19" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P19" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q19" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R19" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S19" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T19" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U19" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V19" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W19" s="4">
+        <f>ROW(A19)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C20">
@@ -1538,41 +1928,61 @@
         <v>15</v>
       </c>
       <c r="L20" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\PDF\</v>
       </c>
       <c r="M20" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>07/2022</v>
       </c>
       <c r="N20" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Julio 2022</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202207</v>
       </c>
       <c r="P20" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202207 - XXXXXX - 0</v>
       </c>
       <c r="Q20" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0 - 30000000000 - LIC - 202207 - XXXXXX - 0</v>
       </c>
-      <c r="R20" s="4">
-        <f t="shared" si="1"/>
+      <c r="R20" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\TXT\</v>
+      </c>
+      <c r="S20" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T20" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U20" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V20" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W20" s="4">
+        <f>ROW(A20)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C21">
@@ -1591,41 +2001,61 @@
         <v>16</v>
       </c>
       <c r="L21" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M21" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N21" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P21" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q21" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R21" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S21" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T21" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U21" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V21" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W21" s="4">
+        <f>ROW(A21)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C22">
@@ -1644,41 +2074,61 @@
         <v>16</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M22" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N22" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P22" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q22" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R22" s="4">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R22" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S22" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T22" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U22" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V22" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W22" s="4">
+        <f>ROW(A22)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C23">
@@ -1697,41 +2147,61 @@
         <v>16</v>
       </c>
       <c r="L23" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M23" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N23" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P23" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q23" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R23" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S23" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T23" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U23" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V23" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W23" s="4">
+        <f>ROW(A23)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C24">
@@ -1750,41 +2220,61 @@
         <v>15</v>
       </c>
       <c r="L24" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M24" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N24" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P24" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q24" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R24" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S24" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T24" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U24" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V24" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W24" s="4">
+        <f>ROW(A24)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C25">
@@ -1803,41 +2293,61 @@
         <v>16</v>
       </c>
       <c r="L25" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M25" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N25" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P25" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q25" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R25" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S25" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T25" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U25" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V25" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W25" s="4">
+        <f>ROW(A25)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C26">
@@ -1856,41 +2366,61 @@
         <v>15</v>
       </c>
       <c r="L26" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M26" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N26" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P26" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q26" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R26" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S26" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T26" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U26" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V26" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W26" s="4">
+        <f>ROW(A26)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C27">
@@ -1909,41 +2439,61 @@
         <v>16</v>
       </c>
       <c r="L27" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M27" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N27" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P27" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q27" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R27" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S27" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T27" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U27" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V27" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W27" s="4">
+        <f>ROW(A27)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C28">
@@ -1962,41 +2512,61 @@
         <v>15</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M28" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N28" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P28" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q28" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R28" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S28" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T28" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U28" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V28" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W28" s="4">
+        <f>ROW(A28)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C29">
@@ -2015,41 +2585,61 @@
         <v>16</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M29" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N29" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O29" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P29" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q29" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R29" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S29" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T29" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U29" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V29" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W29" s="4">
+        <f>ROW(A29)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C30">
@@ -2068,41 +2658,61 @@
         <v>16</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M30" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N30" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O30" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P30" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q30" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R30" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S30" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T30" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U30" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V30" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W30" s="4">
+        <f>ROW(A30)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C31">
@@ -2121,41 +2731,61 @@
         <v>16</v>
       </c>
       <c r="L31" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M31" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N31" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O31" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P31" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q31" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R31" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S31" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T31" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U31" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V31" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W31" s="4">
+        <f>ROW(A31)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C32">
@@ -2174,41 +2804,61 @@
         <v>15</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M32" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N32" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O32" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P32" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q32" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R32" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S32" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T32" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U32" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V32" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W32" s="4">
+        <f>ROW(A32)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C33">
@@ -2227,41 +2877,61 @@
         <v>16</v>
       </c>
       <c r="L33" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M33" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N33" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O33" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P33" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q33" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R33" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S33" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T33" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U33" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V33" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W33" s="4">
+        <f>ROW(A33)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A69" si="9">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A69" si="13">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C34">
@@ -2280,41 +2950,61 @@
         <v>16</v>
       </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M34" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N34" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O34" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P34" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q34" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R34" s="4">
-        <f t="shared" ref="R34:R69" si="10">ROW(A34)</f>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R34" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S34" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T34" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U34" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V34" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W34" s="4">
+        <f>ROW(A34)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C35">
@@ -2333,41 +3023,61 @@
         <v>16</v>
       </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M35" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N35" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O35" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P35" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q35" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R35" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R35" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S35" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T35" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U35" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V35" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W35" s="4">
+        <f>ROW(A35)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C36">
@@ -2386,41 +3096,61 @@
         <v>16</v>
       </c>
       <c r="L36" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M36" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N36" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O36" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P36" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q36" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R36" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S36" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T36" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U36" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V36" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W36" s="4">
+        <f>ROW(A36)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C37">
@@ -2439,41 +3169,61 @@
         <v>15</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M37" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N37" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O37" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P37" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q37" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R37" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R37" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S37" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T37" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U37" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V37" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W37" s="4">
+        <f>ROW(A37)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C38">
@@ -2492,41 +3242,61 @@
         <v>15</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M38" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N38" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O38" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P38" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q38" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R38" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R38" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S38" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T38" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U38" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V38" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W38" s="4">
+        <f>ROW(A38)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C39">
@@ -2545,41 +3315,61 @@
         <v>16</v>
       </c>
       <c r="L39" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M39" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N39" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O39" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P39" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q39" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R39" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R39" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S39" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T39" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U39" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V39" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W39" s="4">
+        <f>ROW(A39)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C40">
@@ -2598,41 +3388,61 @@
         <v>16</v>
       </c>
       <c r="L40" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M40" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N40" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O40" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P40" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q40" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R40" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R40" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S40" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T40" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U40" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V40" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W40" s="4">
+        <f>ROW(A40)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C41">
@@ -2651,41 +3461,61 @@
         <v>16</v>
       </c>
       <c r="L41" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M41" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N41" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O41" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P41" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q41" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R41" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R41" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S41" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T41" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U41" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V41" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W41" s="4">
+        <f>ROW(A41)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C42">
@@ -2704,41 +3534,61 @@
         <v>16</v>
       </c>
       <c r="L42" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M42" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N42" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O42" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P42" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q42" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R42" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R42" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S42" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T42" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U42" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V42" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W42" s="4">
+        <f>ROW(A42)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C43">
@@ -2757,41 +3607,61 @@
         <v>15</v>
       </c>
       <c r="L43" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M43" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N43" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O43" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P43" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q43" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R43" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R43" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S43" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T43" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U43" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V43" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W43" s="4">
+        <f>ROW(A43)</f>
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C44">
@@ -2810,41 +3680,61 @@
         <v>16</v>
       </c>
       <c r="L44" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M44" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N44" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O44" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P44" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q44" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R44" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R44" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S44" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T44" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U44" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V44" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W44" s="4">
+        <f>ROW(A44)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C45">
@@ -2863,41 +3753,61 @@
         <v>15</v>
       </c>
       <c r="L45" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M45" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N45" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O45" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P45" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q45" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R45" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R45" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S45" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T45" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U45" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V45" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W45" s="4">
+        <f>ROW(A45)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C46">
@@ -2919,41 +3829,61 @@
         <v>15</v>
       </c>
       <c r="L46" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\PDF\</v>
       </c>
       <c r="M46" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>07/2022</v>
       </c>
       <c r="N46" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Julio 2022</v>
       </c>
       <c r="O46" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202207</v>
       </c>
       <c r="P46" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202207 - XXXXXX - 0</v>
       </c>
       <c r="Q46" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0 - 30000000000 - LIC - 202207 - XXXXXX - 0</v>
       </c>
-      <c r="R46" s="4">
-        <f t="shared" si="10"/>
+      <c r="R46" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\TXT\</v>
+      </c>
+      <c r="S46" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T46" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U46" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V46" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W46" s="4">
+        <f>ROW(A46)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C47">
@@ -2972,41 +3902,61 @@
         <v>15</v>
       </c>
       <c r="L47" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M47" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N47" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O47" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P47" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q47" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R47" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R47" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S47" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T47" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U47" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V47" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W47" s="4">
+        <f>ROW(A47)</f>
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C48">
@@ -3025,41 +3975,61 @@
         <v>15</v>
       </c>
       <c r="L48" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M48" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N48" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O48" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P48" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q48" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R48" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R48" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S48" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T48" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U48" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V48" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W48" s="4">
+        <f>ROW(A48)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C49">
@@ -3081,41 +4051,61 @@
         <v>14</v>
       </c>
       <c r="L49" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M49" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N49" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O49" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P49" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q49" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R49" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R49" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S49" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T49" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U49" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V49" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W49" s="4">
+        <f>ROW(A49)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C50">
@@ -3134,41 +4124,61 @@
         <v>16</v>
       </c>
       <c r="L50" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M50" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N50" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O50" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P50" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q50" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R50" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R50" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S50" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T50" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U50" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V50" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W50" s="4">
+        <f>ROW(A50)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C51">
@@ -3187,41 +4197,61 @@
         <v>16</v>
       </c>
       <c r="L51" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M51" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N51" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O51" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P51" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q51" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R51" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R51" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S51" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T51" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U51" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V51" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W51" s="4">
+        <f>ROW(A51)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C52">
@@ -3240,41 +4270,61 @@
         <v>16</v>
       </c>
       <c r="L52" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M52" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N52" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O52" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P52" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q52" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R52" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R52" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S52" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T52" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U52" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V52" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W52" s="4">
+        <f>ROW(A52)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C53">
@@ -3293,41 +4343,61 @@
         <v>16</v>
       </c>
       <c r="L53" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M53" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N53" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O53" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P53" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q53" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R53" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R53" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S53" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T53" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U53" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V53" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W53" s="4">
+        <f>ROW(A53)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C54">
@@ -3346,41 +4416,61 @@
         <v>16</v>
       </c>
       <c r="L54" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M54" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N54" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O54" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P54" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q54" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R54" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R54" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S54" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T54" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U54" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V54" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W54" s="4">
+        <f>ROW(A54)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C55">
@@ -3399,41 +4489,61 @@
         <v>15</v>
       </c>
       <c r="L55" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M55" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N55" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O55" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P55" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q55" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R55" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R55" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S55" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T55" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U55" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V55" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W55" s="4">
+        <f>ROW(A55)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C56">
@@ -3452,41 +4562,61 @@
         <v>15</v>
       </c>
       <c r="L56" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M56" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N56" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O56" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P56" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q56" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R56" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R56" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S56" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T56" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U56" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V56" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W56" s="4">
+        <f>ROW(A56)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C57">
@@ -3505,41 +4635,61 @@
         <v>15</v>
       </c>
       <c r="L57" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M57" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N57" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O57" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P57" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q57" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R57" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R57" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S57" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T57" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U57" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V57" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W57" s="4">
+        <f>ROW(A57)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C58">
@@ -3558,41 +4708,61 @@
         <v>16</v>
       </c>
       <c r="L58" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M58" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N58" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O58" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P58" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q58" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R58" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R58" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S58" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T58" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U58" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V58" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W58" s="4">
+        <f>ROW(A58)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C59">
@@ -3611,41 +4781,61 @@
         <v>16</v>
       </c>
       <c r="L59" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M59" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N59" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O59" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P59" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q59" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R59" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R59" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S59" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T59" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U59" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V59" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W59" s="4">
+        <f>ROW(A59)</f>
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C60">
@@ -3664,41 +4854,61 @@
         <v>15</v>
       </c>
       <c r="L60" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M60" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N60" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O60" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P60" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q60" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R60" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R60" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S60" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T60" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U60" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V60" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W60" s="4">
+        <f>ROW(A60)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C61">
@@ -3717,41 +4927,61 @@
         <v>16</v>
       </c>
       <c r="L61" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M61" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N61" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O61" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P61" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q61" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R61" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R61" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S61" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T61" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U61" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V61" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W61" s="4">
+        <f>ROW(A61)</f>
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C62">
@@ -3770,41 +5000,61 @@
         <v>15</v>
       </c>
       <c r="L62" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M62" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N62" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O62" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P62" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q62" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R62" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R62" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S62" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T62" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U62" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V62" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W62" s="4">
+        <f>ROW(A62)</f>
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C63">
@@ -3823,41 +5073,61 @@
         <v>16</v>
       </c>
       <c r="L63" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M63" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N63" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O63" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P63" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q63" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R63" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R63" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S63" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T63" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U63" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V63" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W63" s="4">
+        <f>ROW(A63)</f>
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C64">
@@ -3876,41 +5146,61 @@
         <v>15</v>
       </c>
       <c r="L64" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M64" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N64" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O64" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P64" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q64" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R64" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R64" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S64" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T64" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U64" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V64" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W64" s="4">
+        <f>ROW(A64)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C65">
@@ -3929,41 +5219,61 @@
         <v>15</v>
       </c>
       <c r="L65" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M65" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N65" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O65" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P65" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q65" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R65" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R65" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S65" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T65" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U65" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V65" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W65" s="4">
+        <f>ROW(A65)</f>
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C66">
@@ -3982,41 +5292,61 @@
         <v>16</v>
       </c>
       <c r="L66" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="2"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M66" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N66" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O66" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202209</v>
       </c>
       <c r="P66" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q66" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R66" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R66" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S66" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T66" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U66" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V66" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W66" s="4">
+        <f>ROW(A66)</f>
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B69" si="11">"XXXXXX - "&amp;A67</f>
+        <f t="shared" ref="B67:B69" si="14">"XXXXXX - "&amp;A67</f>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C67">
@@ -4035,41 +5365,61 @@
         <v>16</v>
       </c>
       <c r="L67" s="4" t="str">
-        <f t="shared" ref="L67:L69" si="12">K67&amp;"\Libros Compras y Ventas\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" ref="L67:L69" si="15">K67&amp;"\Libros Compras y Ventas\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\PDF\"</f>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M67" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>09/2022</v>
       </c>
       <c r="N67" s="2" t="str">
-        <f t="shared" ref="N67:N69" si="13">PROPER(TEXT(E67,"mmmm"))&amp;" "&amp;YEAR(E67)</f>
+        <f t="shared" ref="N67:N69" si="16">PROPER(TEXT(E67,"mmmm"))&amp;" "&amp;YEAR(E67)</f>
         <v>Septiembre 2022</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f t="shared" ref="O67:O69" si="14">YEAR(E67)&amp;TEXT(MONTH(E67),"00")</f>
+        <f t="shared" ref="O67:O69" si="17">YEAR(E67)&amp;TEXT(MONTH(E67),"00")</f>
         <v>202209</v>
       </c>
       <c r="P67" s="2" t="str">
-        <f t="shared" ref="P67:P69" si="15">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIV - ",O67," - ",B67)</f>
+        <f t="shared" ref="P67:P69" si="18">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIV - ",O67," - ",B67)</f>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q67" s="2" t="str">
-        <f t="shared" ref="Q67:Q69" si="16">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIC - ",O67," - ",B67)</f>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R67" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="Q67:Q69" si="19">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIC - ",O67," - ",B67)</f>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R67" s="4" t="str">
+        <f t="shared" ref="R67:R69" si="20">K67&amp;"\Libros Compras y Ventas\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\TXT\"</f>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S67" s="4" t="str">
+        <f t="shared" ref="S67:S69" si="21">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIV - ",TEXT(O67,"AAAAMM")," - ",B67," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T67" s="4" t="str">
+        <f t="shared" ref="T67:T69" si="22">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIV - ",TEXT(O67,"AAAAMM")," - ",B67," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U67" s="4" t="str">
+        <f t="shared" ref="U67:U69" si="23">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIC - ",TEXT(O67,"AAAAMM")," - ",B67," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V67" s="4" t="str">
+        <f t="shared" ref="V67:V69" si="24">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIC - ",TEXT(O67,"AAAAMM")," - ",B67," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W67" s="4">
+        <f>ROW(A67)</f>
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C68">
@@ -4088,41 +5438,61 @@
         <v>16</v>
       </c>
       <c r="L68" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="15"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M68" s="4" t="str">
-        <f t="shared" ref="M68:M69" si="17">TEXT(MONTH(E68),"00")&amp;"/"&amp;YEAR(E68)</f>
+        <f t="shared" ref="M68:M69" si="25">TEXT(MONTH(E68),"00")&amp;"/"&amp;YEAR(E68)</f>
         <v>09/2022</v>
       </c>
       <c r="N68" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O68" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>202209</v>
+      </c>
+      <c r="P68" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="Q68" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R68" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S68" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T68" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U68" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V68" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W68" s="4">
+        <f>ROW(A68)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O68" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B69" t="str">
         <f t="shared" si="14"/>
-        <v>202209</v>
-      </c>
-      <c r="P68" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q68" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R68" s="4">
-        <f t="shared" si="10"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="B69" t="str">
-        <f t="shared" si="11"/>
         <v>XXXXXX - 0</v>
       </c>
       <c r="C69">
@@ -4141,37 +5511,57 @@
         <v>16</v>
       </c>
       <c r="L69" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\</v>
+        <f t="shared" si="15"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
       </c>
       <c r="M69" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N69" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O69" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>09/2022</v>
-      </c>
-      <c r="N69" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O69" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>202209</v>
       </c>
       <c r="P69" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
       </c>
       <c r="Q69" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R69" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
+        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+      </c>
+      <c r="R69" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+      </c>
+      <c r="S69" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="T69" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="U69" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+      </c>
+      <c r="V69" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+      </c>
+      <c r="W69" s="4">
+        <f>ROW(A69)</f>
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
+  <autoFilter ref="A1:W69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q69">
     <sortCondition ref="B2:B69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lista libros SOS.xlsx
+++ b/Lista libros SOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\IVA-Compras-y-Ventas-PDF-y-TXT-de-LID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\IVA-Compras-y-Ventas-PDF-y-TXT-de-LID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCC527A-98AC-443B-9DCB-20349FCD90E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8232C4C4-F19C-4A14-A3CF-81E9DAAF444E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,8 +577,8 @@
         <v>9</v>
       </c>
       <c r="B2" t="str">
-        <f>"XXXXXX - "&amp;A2</f>
-        <v>XXXXXX - 9</v>
+        <f>"Cliente - N° "&amp;W2-1</f>
+        <v>Cliente - N° 1</v>
       </c>
       <c r="C2">
         <v>20000000009</v>
@@ -604,7 +604,7 @@
       </c>
       <c r="L2" s="4" t="str">
         <f>K2&amp;"\Libros Compras y Ventas\"&amp;B2&amp;"\"&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\PDF\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\Libros Compras y Ventas\XXXXXX - 9\2022\09\PDF\</v>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\Libros Compras y Ventas\Cliente - N° 1\2022\09\PDF\</v>
       </c>
       <c r="M2" s="4" t="str">
         <f>TEXT(MONTH(E2),"00")&amp;"/"&amp;YEAR(E2)</f>
@@ -620,34 +620,34 @@
       </c>
       <c r="P2" s="2" t="str">
         <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",O2," - ",B2)</f>
-        <v>9 - 20000000009 - LIV - 202209 - XXXXXX - 9</v>
+        <v>9 - 20000000009 - LIV - 202209 - Cliente - N° 1</v>
       </c>
       <c r="Q2" s="2" t="str">
         <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",O2," - ",B2)</f>
-        <v>9 - 20000000009 - LIC - 202209 - XXXXXX - 9</v>
+        <v>9 - 20000000009 - LIC - 202209 - Cliente - N° 1</v>
       </c>
       <c r="R2" s="4" t="str">
         <f>K2&amp;"\Libros Compras y Ventas\"&amp;B2&amp;"\"&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\TXT\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\Libros Compras y Ventas\XXXXXX - 9\2022\09\TXT\</v>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\Libros Compras y Ventas\Cliente - N° 1\2022\09\TXT\</v>
       </c>
       <c r="S2" s="4" t="str">
         <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",TEXT(O2,"AAAAMM")," - ",B2," SOS.txt")</f>
-        <v>9 - 20000000009 - LIV - 245308 - XXXXXX - 9 SOS.txt</v>
+        <v>9 - 20000000009 - LIV - 245308 - Cliente - N° 1 SOS.txt</v>
       </c>
       <c r="T2" s="4" t="str">
         <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIV - ",TEXT(O2,"AAAAMM")," - ",B2," Alicuota SOS.txt")</f>
-        <v>9 - 20000000009 - LIV - 245308 - XXXXXX - 9 Alicuota SOS.txt</v>
+        <v>9 - 20000000009 - LIV - 245308 - Cliente - N° 1 Alicuota SOS.txt</v>
       </c>
       <c r="U2" s="4" t="str">
         <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",TEXT(O2,"AAAAMM")," - ",B2," SOS.txt")</f>
-        <v>9 - 20000000009 - LIC - 245308 - XXXXXX - 9 SOS.txt</v>
+        <v>9 - 20000000009 - LIC - 245308 - Cliente - N° 1 SOS.txt</v>
       </c>
       <c r="V2" s="4" t="str">
         <f>CONCATENATE(A2," - ",SUBSTITUTE(D2,"-","")," - ","LIC - ",TEXT(O2,"AAAAMM")," - ",B2," Alicuota SOS.txt")</f>
-        <v>9 - 20000000009 - LIC - 245308 - XXXXXX - 9 Alicuota SOS.txt</v>
+        <v>9 - 20000000009 - LIC - 245308 - Cliente - N° 1 Alicuota SOS.txt</v>
       </c>
       <c r="W2" s="4">
-        <f>ROW(A2)</f>
+        <f t="shared" ref="W2:W33" si="1">ROW(A2)</f>
         <v>2</v>
       </c>
     </row>
@@ -657,8 +657,8 @@
         <v>9</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="1">"XXXXXX - "&amp;A3</f>
-        <v>XXXXXX - 9</v>
+        <f t="shared" ref="B3:B66" si="2">"Cliente - N° "&amp;W3-1</f>
+        <v>Cliente - N° 2</v>
       </c>
       <c r="C3">
         <v>20000000009</v>
@@ -677,51 +677,51 @@
         <v>16</v>
       </c>
       <c r="L3" s="4" t="str">
-        <f t="shared" ref="L3:L66" si="2">K3&amp;"\Libros Compras y Ventas\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\PDF\"</f>
-        <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\PDF\</v>
+        <f t="shared" ref="L3:L66" si="3">K3&amp;"\Libros Compras y Ventas\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\PDF\"</f>
+        <v>\Libros Compras y Ventas\Cliente - N° 2\2022\09\PDF\</v>
       </c>
       <c r="M3" s="4" t="str">
         <f>TEXT(MONTH(E3),"00")&amp;"/"&amp;YEAR(E3)</f>
         <v>09/2022</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N66" si="3">PROPER(TEXT(E3,"mmmm"))&amp;" "&amp;YEAR(E3)</f>
+        <f t="shared" ref="N3:N66" si="4">PROPER(TEXT(E3,"mmmm"))&amp;" "&amp;YEAR(E3)</f>
         <v>Septiembre 2022</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f t="shared" ref="O3:O66" si="4">YEAR(E3)&amp;TEXT(MONTH(E3),"00")</f>
+        <f t="shared" ref="O3:O66" si="5">YEAR(E3)&amp;TEXT(MONTH(E3),"00")</f>
         <v>202209</v>
       </c>
       <c r="P3" s="2" t="str">
-        <f t="shared" ref="P3:P66" si="5">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",O3," - ",B3)</f>
-        <v>9 - 20000000009 - LIV - 202209 - XXXXXX - 9</v>
+        <f t="shared" ref="P3:P66" si="6">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",O3," - ",B3)</f>
+        <v>9 - 20000000009 - LIV - 202209 - Cliente - N° 2</v>
       </c>
       <c r="Q3" s="2" t="str">
-        <f t="shared" ref="Q3:Q66" si="6">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",O3," - ",B3)</f>
-        <v>9 - 20000000009 - LIC - 202209 - XXXXXX - 9</v>
+        <f t="shared" ref="Q3:Q66" si="7">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",O3," - ",B3)</f>
+        <v>9 - 20000000009 - LIC - 202209 - Cliente - N° 2</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f t="shared" ref="R3:R66" si="7">K3&amp;"\Libros Compras y Ventas\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\TXT\"</f>
-        <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\TXT\</v>
+        <f t="shared" ref="R3:R66" si="8">K3&amp;"\Libros Compras y Ventas\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\TXT\"</f>
+        <v>\Libros Compras y Ventas\Cliente - N° 2\2022\09\TXT\</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S66" si="8">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",TEXT(O3,"AAAAMM")," - ",B3," SOS.txt")</f>
-        <v>9 - 20000000009 - LIV - 245308 - XXXXXX - 9 SOS.txt</v>
+        <f t="shared" ref="S3:S66" si="9">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",TEXT(O3,"AAAAMM")," - ",B3," SOS.txt")</f>
+        <v>9 - 20000000009 - LIV - 245308 - Cliente - N° 2 SOS.txt</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f t="shared" ref="T3:T66" si="9">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",TEXT(O3,"AAAAMM")," - ",B3," Alicuota SOS.txt")</f>
-        <v>9 - 20000000009 - LIV - 245308 - XXXXXX - 9 Alicuota SOS.txt</v>
+        <f t="shared" ref="T3:T66" si="10">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIV - ",TEXT(O3,"AAAAMM")," - ",B3," Alicuota SOS.txt")</f>
+        <v>9 - 20000000009 - LIV - 245308 - Cliente - N° 2 Alicuota SOS.txt</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U66" si="10">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",TEXT(O3,"AAAAMM")," - ",B3," SOS.txt")</f>
-        <v>9 - 20000000009 - LIC - 245308 - XXXXXX - 9 SOS.txt</v>
+        <f t="shared" ref="U3:U66" si="11">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",TEXT(O3,"AAAAMM")," - ",B3," SOS.txt")</f>
+        <v>9 - 20000000009 - LIC - 245308 - Cliente - N° 2 SOS.txt</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f t="shared" ref="V3:V66" si="11">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",TEXT(O3,"AAAAMM")," - ",B3," Alicuota SOS.txt")</f>
-        <v>9 - 20000000009 - LIC - 245308 - XXXXXX - 9 Alicuota SOS.txt</v>
+        <f t="shared" ref="V3:V66" si="12">CONCATENATE(A3," - ",SUBSTITUTE(D3,"-","")," - ","LIC - ",TEXT(O3,"AAAAMM")," - ",B3," Alicuota SOS.txt")</f>
+        <v>9 - 20000000009 - LIC - 245308 - Cliente - N° 2 Alicuota SOS.txt</v>
       </c>
       <c r="W3" s="4">
-        <f>ROW(A3)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -731,8 +731,8 @@
         <v>9</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 9</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 3</v>
       </c>
       <c r="C4">
         <v>20000000009</v>
@@ -751,51 +751,51 @@
         <v>15</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 3\2022\09\PDF\</v>
       </c>
       <c r="M4" s="4" t="str">
-        <f t="shared" ref="M4:M67" si="12">TEXT(MONTH(E4),"00")&amp;"/"&amp;YEAR(E4)</f>
+        <f t="shared" ref="M4:M67" si="13">TEXT(MONTH(E4),"00")&amp;"/"&amp;YEAR(E4)</f>
         <v>09/2022</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P4" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>9 - 20000000009 - LIV - 202209 - XXXXXX - 9</v>
+        <f t="shared" si="6"/>
+        <v>9 - 20000000009 - LIV - 202209 - Cliente - N° 3</v>
       </c>
       <c r="Q4" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>9 - 20000000009 - LIC - 202209 - XXXXXX - 9</v>
+        <f t="shared" si="7"/>
+        <v>9 - 20000000009 - LIC - 202209 - Cliente - N° 3</v>
       </c>
       <c r="R4" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 9\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 3\2022\09\TXT\</v>
       </c>
       <c r="S4" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>9 - 20000000009 - LIV - 245308 - XXXXXX - 9 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>9 - 20000000009 - LIV - 245308 - Cliente - N° 3 SOS.txt</v>
       </c>
       <c r="T4" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>9 - 20000000009 - LIV - 245308 - XXXXXX - 9 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>9 - 20000000009 - LIV - 245308 - Cliente - N° 3 Alicuota SOS.txt</v>
       </c>
       <c r="U4" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>9 - 20000000009 - LIC - 245308 - XXXXXX - 9 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>9 - 20000000009 - LIC - 245308 - Cliente - N° 3 SOS.txt</v>
       </c>
       <c r="V4" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>9 - 20000000009 - LIC - 245308 - XXXXXX - 9 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>9 - 20000000009 - LIC - 245308 - Cliente - N° 3 Alicuota SOS.txt</v>
       </c>
       <c r="W4" s="4">
-        <f>ROW(A4)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -805,8 +805,8 @@
         <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 4</v>
       </c>
       <c r="C5">
         <v>20000000009</v>
@@ -824,51 +824,51 @@
         <v>15</v>
       </c>
       <c r="L5" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 4\2022\09\PDF\</v>
       </c>
       <c r="M5" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N5" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P5" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 4</v>
       </c>
       <c r="Q5" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 4</v>
       </c>
       <c r="R5" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 4\2022\09\TXT\</v>
       </c>
       <c r="S5" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 4 SOS.txt</v>
       </c>
       <c r="T5" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 4 Alicuota SOS.txt</v>
       </c>
       <c r="U5" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 4 SOS.txt</v>
       </c>
       <c r="V5" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 4 Alicuota SOS.txt</v>
       </c>
       <c r="W5" s="4">
-        <f>ROW(A5)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -878,8 +878,8 @@
         <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 5</v>
       </c>
       <c r="C6">
         <v>20000000009</v>
@@ -897,51 +897,51 @@
         <v>16</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 5\2022\09\PDF\</v>
       </c>
       <c r="M6" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P6" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 5</v>
       </c>
       <c r="Q6" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 5</v>
       </c>
       <c r="R6" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 5\2022\09\TXT\</v>
       </c>
       <c r="S6" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 5 SOS.txt</v>
       </c>
       <c r="T6" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 5 Alicuota SOS.txt</v>
       </c>
       <c r="U6" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 5 SOS.txt</v>
       </c>
       <c r="V6" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 5 Alicuota SOS.txt</v>
       </c>
       <c r="W6" s="4">
-        <f>ROW(A6)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -951,8 +951,8 @@
         <v>0</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 6</v>
       </c>
       <c r="C7">
         <v>20000000009</v>
@@ -970,51 +970,51 @@
         <v>16</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 6\2022\09\PDF\</v>
       </c>
       <c r="M7" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P7" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 6</v>
       </c>
       <c r="Q7" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 6</v>
       </c>
       <c r="R7" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 6\2022\09\TXT\</v>
       </c>
       <c r="S7" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 6 SOS.txt</v>
       </c>
       <c r="T7" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 6 Alicuota SOS.txt</v>
       </c>
       <c r="U7" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 6 SOS.txt</v>
       </c>
       <c r="V7" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 6 Alicuota SOS.txt</v>
       </c>
       <c r="W7" s="4">
-        <f>ROW(A7)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -1024,8 +1024,8 @@
         <v>0</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 7</v>
       </c>
       <c r="C8">
         <v>20000000009</v>
@@ -1043,51 +1043,51 @@
         <v>16</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 7\2022\09\PDF\</v>
       </c>
       <c r="M8" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P8" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 7</v>
       </c>
       <c r="Q8" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 7</v>
       </c>
       <c r="R8" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 7\2022\09\TXT\</v>
       </c>
       <c r="S8" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 7 SOS.txt</v>
       </c>
       <c r="T8" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 7 Alicuota SOS.txt</v>
       </c>
       <c r="U8" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 7 SOS.txt</v>
       </c>
       <c r="V8" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 7 Alicuota SOS.txt</v>
       </c>
       <c r="W8" s="4">
-        <f>ROW(A8)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1097,8 +1097,8 @@
         <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 8</v>
       </c>
       <c r="C9">
         <v>20000000009</v>
@@ -1116,51 +1116,51 @@
         <v>16</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 8\2022\09\PDF\</v>
       </c>
       <c r="M9" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P9" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 8</v>
       </c>
       <c r="Q9" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 8</v>
       </c>
       <c r="R9" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 8\2022\09\TXT\</v>
       </c>
       <c r="S9" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 8 SOS.txt</v>
       </c>
       <c r="T9" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 8 Alicuota SOS.txt</v>
       </c>
       <c r="U9" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 8 SOS.txt</v>
       </c>
       <c r="V9" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 8 Alicuota SOS.txt</v>
       </c>
       <c r="W9" s="4">
-        <f>ROW(A9)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -1170,8 +1170,8 @@
         <v>0</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 9</v>
       </c>
       <c r="C10">
         <v>20000000009</v>
@@ -1189,51 +1189,51 @@
         <v>16</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 9\2022\09\PDF\</v>
       </c>
       <c r="M10" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P10" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 9</v>
       </c>
       <c r="Q10" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 9</v>
       </c>
       <c r="R10" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 9\2022\09\TXT\</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 9 SOS.txt</v>
       </c>
       <c r="T10" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 9 Alicuota SOS.txt</v>
       </c>
       <c r="U10" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 9 SOS.txt</v>
       </c>
       <c r="V10" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 9 Alicuota SOS.txt</v>
       </c>
       <c r="W10" s="4">
-        <f>ROW(A10)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1243,8 +1243,8 @@
         <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 10</v>
       </c>
       <c r="C11">
         <v>20000000009</v>
@@ -1262,51 +1262,51 @@
         <v>15</v>
       </c>
       <c r="L11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 10\2022\09\PDF\</v>
       </c>
       <c r="M11" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P11" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 10</v>
       </c>
       <c r="Q11" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 10</v>
       </c>
       <c r="R11" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 10\2022\09\TXT\</v>
       </c>
       <c r="S11" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 10 SOS.txt</v>
       </c>
       <c r="T11" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 10 Alicuota SOS.txt</v>
       </c>
       <c r="U11" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 10 SOS.txt</v>
       </c>
       <c r="V11" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 10 Alicuota SOS.txt</v>
       </c>
       <c r="W11" s="4">
-        <f>ROW(A11)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -1316,8 +1316,8 @@
         <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 11</v>
       </c>
       <c r="C12">
         <v>20000000009</v>
@@ -1335,51 +1335,51 @@
         <v>16</v>
       </c>
       <c r="L12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 11\2022\09\PDF\</v>
       </c>
       <c r="M12" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P12" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 11</v>
       </c>
       <c r="Q12" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 11</v>
       </c>
       <c r="R12" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 11\2022\09\TXT\</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 11 SOS.txt</v>
       </c>
       <c r="T12" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 11 Alicuota SOS.txt</v>
       </c>
       <c r="U12" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 11 SOS.txt</v>
       </c>
       <c r="V12" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 11 Alicuota SOS.txt</v>
       </c>
       <c r="W12" s="4">
-        <f>ROW(A12)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -1389,8 +1389,8 @@
         <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 12</v>
       </c>
       <c r="C13">
         <v>20000000009</v>
@@ -1408,51 +1408,51 @@
         <v>16</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 12\2022\09\PDF\</v>
       </c>
       <c r="M13" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P13" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 12</v>
       </c>
       <c r="Q13" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 12</v>
       </c>
       <c r="R13" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 12\2022\09\TXT\</v>
       </c>
       <c r="S13" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 12 SOS.txt</v>
       </c>
       <c r="T13" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 12 Alicuota SOS.txt</v>
       </c>
       <c r="U13" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 12 SOS.txt</v>
       </c>
       <c r="V13" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 12 Alicuota SOS.txt</v>
       </c>
       <c r="W13" s="4">
-        <f>ROW(A13)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -1462,8 +1462,8 @@
         <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 13</v>
       </c>
       <c r="C14">
         <v>20000000009</v>
@@ -1481,51 +1481,51 @@
         <v>15</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 13\2022\09\PDF\</v>
       </c>
       <c r="M14" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P14" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 13</v>
       </c>
       <c r="Q14" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 13</v>
       </c>
       <c r="R14" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 13\2022\09\TXT\</v>
       </c>
       <c r="S14" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 13 SOS.txt</v>
       </c>
       <c r="T14" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 13 Alicuota SOS.txt</v>
       </c>
       <c r="U14" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 13 SOS.txt</v>
       </c>
       <c r="V14" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 13 Alicuota SOS.txt</v>
       </c>
       <c r="W14" s="4">
-        <f>ROW(A14)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -1535,8 +1535,8 @@
         <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 14</v>
       </c>
       <c r="C15">
         <v>20000000009</v>
@@ -1557,51 +1557,51 @@
         <v>14</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 14\2022\09\PDF\</v>
       </c>
       <c r="M15" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N15" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P15" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 14</v>
       </c>
       <c r="Q15" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 14</v>
       </c>
       <c r="R15" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 14\2022\09\TXT\</v>
       </c>
       <c r="S15" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 14 SOS.txt</v>
       </c>
       <c r="T15" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 14 Alicuota SOS.txt</v>
       </c>
       <c r="U15" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 14 SOS.txt</v>
       </c>
       <c r="V15" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 14 Alicuota SOS.txt</v>
       </c>
       <c r="W15" s="4">
-        <f>ROW(A15)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -1611,8 +1611,8 @@
         <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 15</v>
       </c>
       <c r="C16">
         <v>20000000009</v>
@@ -1630,51 +1630,51 @@
         <v>16</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 15\2022\09\PDF\</v>
       </c>
       <c r="M16" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P16" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 15</v>
       </c>
       <c r="Q16" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 15</v>
       </c>
       <c r="R16" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 15\2022\09\TXT\</v>
       </c>
       <c r="S16" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 15 SOS.txt</v>
       </c>
       <c r="T16" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 15 Alicuota SOS.txt</v>
       </c>
       <c r="U16" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 15 SOS.txt</v>
       </c>
       <c r="V16" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 15 Alicuota SOS.txt</v>
       </c>
       <c r="W16" s="4">
-        <f>ROW(A16)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -1684,8 +1684,8 @@
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 16</v>
       </c>
       <c r="C17">
         <v>20000000009</v>
@@ -1706,51 +1706,51 @@
         <v>21</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 16\2022\07\PDF\</v>
       </c>
       <c r="M17" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>07/2022</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Julio 2022</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202207</v>
       </c>
       <c r="P17" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202207 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202207 - Cliente - N° 16</v>
       </c>
       <c r="Q17" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202207 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202207 - Cliente - N° 16</v>
       </c>
       <c r="R17" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 16\2022\07\TXT\</v>
       </c>
       <c r="S17" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 16 SOS.txt</v>
       </c>
       <c r="T17" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 16 Alicuota SOS.txt</v>
       </c>
       <c r="U17" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 16 SOS.txt</v>
       </c>
       <c r="V17" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 16 Alicuota SOS.txt</v>
       </c>
       <c r="W17" s="4">
-        <f>ROW(A17)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -1760,8 +1760,8 @@
         <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 17</v>
       </c>
       <c r="C18">
         <v>20000000009</v>
@@ -1779,51 +1779,51 @@
         <v>16</v>
       </c>
       <c r="L18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 17\2022\09\PDF\</v>
       </c>
       <c r="M18" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N18" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P18" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 17</v>
       </c>
       <c r="Q18" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 17</v>
       </c>
       <c r="R18" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 17\2022\09\TXT\</v>
       </c>
       <c r="S18" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 17 SOS.txt</v>
       </c>
       <c r="T18" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 17 Alicuota SOS.txt</v>
       </c>
       <c r="U18" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 17 SOS.txt</v>
       </c>
       <c r="V18" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 17 Alicuota SOS.txt</v>
       </c>
       <c r="W18" s="4">
-        <f>ROW(A18)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -1833,8 +1833,8 @@
         <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 18</v>
       </c>
       <c r="C19">
         <v>20000000009</v>
@@ -1852,51 +1852,51 @@
         <v>16</v>
       </c>
       <c r="L19" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 18\2022\09\PDF\</v>
       </c>
       <c r="M19" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N19" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P19" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 18</v>
       </c>
       <c r="Q19" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 18</v>
       </c>
       <c r="R19" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 18\2022\09\TXT\</v>
       </c>
       <c r="S19" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 18 SOS.txt</v>
       </c>
       <c r="T19" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 18 Alicuota SOS.txt</v>
       </c>
       <c r="U19" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 18 SOS.txt</v>
       </c>
       <c r="V19" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 18 Alicuota SOS.txt</v>
       </c>
       <c r="W19" s="4">
-        <f>ROW(A19)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -1906,8 +1906,8 @@
         <v>0</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 19</v>
       </c>
       <c r="C20">
         <v>20000000009</v>
@@ -1928,51 +1928,51 @@
         <v>15</v>
       </c>
       <c r="L20" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 19\2022\07\PDF\</v>
       </c>
       <c r="M20" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>07/2022</v>
       </c>
       <c r="N20" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Julio 2022</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202207</v>
       </c>
       <c r="P20" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202207 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202207 - Cliente - N° 19</v>
       </c>
       <c r="Q20" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202207 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202207 - Cliente - N° 19</v>
       </c>
       <c r="R20" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 19\2022\07\TXT\</v>
       </c>
       <c r="S20" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 19 SOS.txt</v>
       </c>
       <c r="T20" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 19 Alicuota SOS.txt</v>
       </c>
       <c r="U20" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 19 SOS.txt</v>
       </c>
       <c r="V20" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 19 Alicuota SOS.txt</v>
       </c>
       <c r="W20" s="4">
-        <f>ROW(A20)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1982,8 +1982,8 @@
         <v>0</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 20</v>
       </c>
       <c r="C21">
         <v>20000000009</v>
@@ -2001,51 +2001,51 @@
         <v>16</v>
       </c>
       <c r="L21" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 20\2022\09\PDF\</v>
       </c>
       <c r="M21" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N21" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P21" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 20</v>
       </c>
       <c r="Q21" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 20</v>
       </c>
       <c r="R21" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 20\2022\09\TXT\</v>
       </c>
       <c r="S21" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 20 SOS.txt</v>
       </c>
       <c r="T21" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 20 Alicuota SOS.txt</v>
       </c>
       <c r="U21" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 20 SOS.txt</v>
       </c>
       <c r="V21" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 20 Alicuota SOS.txt</v>
       </c>
       <c r="W21" s="4">
-        <f>ROW(A21)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -2055,8 +2055,8 @@
         <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 21</v>
       </c>
       <c r="C22">
         <v>20000000009</v>
@@ -2074,51 +2074,51 @@
         <v>16</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 21\2022\09\PDF\</v>
       </c>
       <c r="M22" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P22" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 21</v>
       </c>
       <c r="Q22" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 21</v>
       </c>
       <c r="R22" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 21\2022\09\TXT\</v>
       </c>
       <c r="S22" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 21 SOS.txt</v>
       </c>
       <c r="T22" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 21 Alicuota SOS.txt</v>
       </c>
       <c r="U22" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 21 SOS.txt</v>
       </c>
       <c r="V22" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 21 Alicuota SOS.txt</v>
       </c>
       <c r="W22" s="4">
-        <f>ROW(A22)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -2128,8 +2128,8 @@
         <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 22</v>
       </c>
       <c r="C23">
         <v>20000000009</v>
@@ -2147,51 +2147,51 @@
         <v>16</v>
       </c>
       <c r="L23" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 22\2022\09\PDF\</v>
       </c>
       <c r="M23" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N23" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P23" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 22</v>
       </c>
       <c r="Q23" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 22</v>
       </c>
       <c r="R23" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 22\2022\09\TXT\</v>
       </c>
       <c r="S23" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 22 SOS.txt</v>
       </c>
       <c r="T23" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 22 Alicuota SOS.txt</v>
       </c>
       <c r="U23" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 22 SOS.txt</v>
       </c>
       <c r="V23" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 22 Alicuota SOS.txt</v>
       </c>
       <c r="W23" s="4">
-        <f>ROW(A23)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
@@ -2201,8 +2201,8 @@
         <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 23</v>
       </c>
       <c r="C24">
         <v>20000000009</v>
@@ -2220,51 +2220,51 @@
         <v>15</v>
       </c>
       <c r="L24" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 23\2022\09\PDF\</v>
       </c>
       <c r="M24" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N24" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P24" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 23</v>
       </c>
       <c r="Q24" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 23</v>
       </c>
       <c r="R24" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 23\2022\09\TXT\</v>
       </c>
       <c r="S24" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 23 SOS.txt</v>
       </c>
       <c r="T24" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 23 Alicuota SOS.txt</v>
       </c>
       <c r="U24" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 23 SOS.txt</v>
       </c>
       <c r="V24" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 23 Alicuota SOS.txt</v>
       </c>
       <c r="W24" s="4">
-        <f>ROW(A24)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -2274,8 +2274,8 @@
         <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 24</v>
       </c>
       <c r="C25">
         <v>20000000009</v>
@@ -2293,51 +2293,51 @@
         <v>16</v>
       </c>
       <c r="L25" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 24\2022\09\PDF\</v>
       </c>
       <c r="M25" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N25" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P25" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 24</v>
       </c>
       <c r="Q25" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 24</v>
       </c>
       <c r="R25" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 24\2022\09\TXT\</v>
       </c>
       <c r="S25" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 24 SOS.txt</v>
       </c>
       <c r="T25" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 24 Alicuota SOS.txt</v>
       </c>
       <c r="U25" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 24 SOS.txt</v>
       </c>
       <c r="V25" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 24 Alicuota SOS.txt</v>
       </c>
       <c r="W25" s="4">
-        <f>ROW(A25)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -2347,8 +2347,8 @@
         <v>0</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 25</v>
       </c>
       <c r="C26">
         <v>20000000009</v>
@@ -2366,51 +2366,51 @@
         <v>15</v>
       </c>
       <c r="L26" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 25\2022\09\PDF\</v>
       </c>
       <c r="M26" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N26" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P26" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 25</v>
       </c>
       <c r="Q26" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 25</v>
       </c>
       <c r="R26" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 25\2022\09\TXT\</v>
       </c>
       <c r="S26" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 25 SOS.txt</v>
       </c>
       <c r="T26" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 25 Alicuota SOS.txt</v>
       </c>
       <c r="U26" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 25 SOS.txt</v>
       </c>
       <c r="V26" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 25 Alicuota SOS.txt</v>
       </c>
       <c r="W26" s="4">
-        <f>ROW(A26)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
@@ -2420,8 +2420,8 @@
         <v>0</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 26</v>
       </c>
       <c r="C27">
         <v>20000000009</v>
@@ -2439,51 +2439,51 @@
         <v>16</v>
       </c>
       <c r="L27" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 26\2022\09\PDF\</v>
       </c>
       <c r="M27" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N27" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P27" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 26</v>
       </c>
       <c r="Q27" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 26</v>
       </c>
       <c r="R27" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 26\2022\09\TXT\</v>
       </c>
       <c r="S27" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 26 SOS.txt</v>
       </c>
       <c r="T27" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 26 Alicuota SOS.txt</v>
       </c>
       <c r="U27" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 26 SOS.txt</v>
       </c>
       <c r="V27" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 26 Alicuota SOS.txt</v>
       </c>
       <c r="W27" s="4">
-        <f>ROW(A27)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
@@ -2493,8 +2493,8 @@
         <v>0</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 27</v>
       </c>
       <c r="C28">
         <v>20000000009</v>
@@ -2512,51 +2512,51 @@
         <v>15</v>
       </c>
       <c r="L28" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 27\2022\09\PDF\</v>
       </c>
       <c r="M28" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N28" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P28" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 27</v>
       </c>
       <c r="Q28" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 27</v>
       </c>
       <c r="R28" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 27\2022\09\TXT\</v>
       </c>
       <c r="S28" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 27 SOS.txt</v>
       </c>
       <c r="T28" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 27 Alicuota SOS.txt</v>
       </c>
       <c r="U28" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 27 SOS.txt</v>
       </c>
       <c r="V28" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 27 Alicuota SOS.txt</v>
       </c>
       <c r="W28" s="4">
-        <f>ROW(A28)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
@@ -2566,8 +2566,8 @@
         <v>0</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 28</v>
       </c>
       <c r="C29">
         <v>20000000009</v>
@@ -2585,51 +2585,51 @@
         <v>16</v>
       </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 28\2022\09\PDF\</v>
       </c>
       <c r="M29" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N29" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O29" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P29" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 28</v>
       </c>
       <c r="Q29" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 28</v>
       </c>
       <c r="R29" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 28\2022\09\TXT\</v>
       </c>
       <c r="S29" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 28 SOS.txt</v>
       </c>
       <c r="T29" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 28 Alicuota SOS.txt</v>
       </c>
       <c r="U29" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 28 SOS.txt</v>
       </c>
       <c r="V29" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 28 Alicuota SOS.txt</v>
       </c>
       <c r="W29" s="4">
-        <f>ROW(A29)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
@@ -2639,8 +2639,8 @@
         <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 29</v>
       </c>
       <c r="C30">
         <v>20000000009</v>
@@ -2658,51 +2658,51 @@
         <v>16</v>
       </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 29\2022\09\PDF\</v>
       </c>
       <c r="M30" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N30" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O30" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P30" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 29</v>
       </c>
       <c r="Q30" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 29</v>
       </c>
       <c r="R30" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 29\2022\09\TXT\</v>
       </c>
       <c r="S30" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 29 SOS.txt</v>
       </c>
       <c r="T30" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 29 Alicuota SOS.txt</v>
       </c>
       <c r="U30" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 29 SOS.txt</v>
       </c>
       <c r="V30" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 29 Alicuota SOS.txt</v>
       </c>
       <c r="W30" s="4">
-        <f>ROW(A30)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -2712,8 +2712,8 @@
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 30</v>
       </c>
       <c r="C31">
         <v>20000000009</v>
@@ -2731,51 +2731,51 @@
         <v>16</v>
       </c>
       <c r="L31" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 30\2022\09\PDF\</v>
       </c>
       <c r="M31" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N31" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O31" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P31" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 30</v>
       </c>
       <c r="Q31" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 30</v>
       </c>
       <c r="R31" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 30\2022\09\TXT\</v>
       </c>
       <c r="S31" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 30 SOS.txt</v>
       </c>
       <c r="T31" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 30 Alicuota SOS.txt</v>
       </c>
       <c r="U31" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 30 SOS.txt</v>
       </c>
       <c r="V31" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 30 Alicuota SOS.txt</v>
       </c>
       <c r="W31" s="4">
-        <f>ROW(A31)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
@@ -2785,8 +2785,8 @@
         <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 31</v>
       </c>
       <c r="C32">
         <v>20000000009</v>
@@ -2804,51 +2804,51 @@
         <v>15</v>
       </c>
       <c r="L32" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 31\2022\09\PDF\</v>
       </c>
       <c r="M32" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N32" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O32" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P32" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 31</v>
       </c>
       <c r="Q32" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 31</v>
       </c>
       <c r="R32" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 31\2022\09\TXT\</v>
       </c>
       <c r="S32" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 31 SOS.txt</v>
       </c>
       <c r="T32" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 31 Alicuota SOS.txt</v>
       </c>
       <c r="U32" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 31 SOS.txt</v>
       </c>
       <c r="V32" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 31 Alicuota SOS.txt</v>
       </c>
       <c r="W32" s="4">
-        <f>ROW(A32)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
@@ -2858,8 +2858,8 @@
         <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 32</v>
       </c>
       <c r="C33">
         <v>20000000009</v>
@@ -2877,62 +2877,62 @@
         <v>16</v>
       </c>
       <c r="L33" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 32\2022\09\PDF\</v>
       </c>
       <c r="M33" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N33" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O33" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P33" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 32</v>
       </c>
       <c r="Q33" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 32</v>
       </c>
       <c r="R33" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 32\2022\09\TXT\</v>
       </c>
       <c r="S33" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 32 SOS.txt</v>
       </c>
       <c r="T33" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 32 Alicuota SOS.txt</v>
       </c>
       <c r="U33" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 32 SOS.txt</v>
       </c>
       <c r="V33" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 32 Alicuota SOS.txt</v>
       </c>
       <c r="W33" s="4">
-        <f>ROW(A33)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A69" si="13">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A69" si="14">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 33</v>
       </c>
       <c r="C34">
         <v>20000000009</v>
@@ -2950,62 +2950,62 @@
         <v>16</v>
       </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 33\2022\09\PDF\</v>
       </c>
       <c r="M34" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N34" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O34" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P34" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 33</v>
       </c>
       <c r="Q34" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 33</v>
       </c>
       <c r="R34" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 33\2022\09\TXT\</v>
       </c>
       <c r="S34" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 33 SOS.txt</v>
       </c>
       <c r="T34" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 33 Alicuota SOS.txt</v>
       </c>
       <c r="U34" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 33 SOS.txt</v>
       </c>
       <c r="V34" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 33 Alicuota SOS.txt</v>
       </c>
       <c r="W34" s="4">
-        <f>ROW(A34)</f>
+        <f t="shared" ref="W34:W69" si="15">ROW(A34)</f>
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 34</v>
       </c>
       <c r="C35">
         <v>20000000009</v>
@@ -3023,62 +3023,62 @@
         <v>16</v>
       </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 34\2022\09\PDF\</v>
       </c>
       <c r="M35" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N35" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O35" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P35" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 34</v>
       </c>
       <c r="Q35" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 34</v>
       </c>
       <c r="R35" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 34\2022\09\TXT\</v>
       </c>
       <c r="S35" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 34 SOS.txt</v>
       </c>
       <c r="T35" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 34 Alicuota SOS.txt</v>
       </c>
       <c r="U35" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 34 SOS.txt</v>
       </c>
       <c r="V35" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 34 Alicuota SOS.txt</v>
       </c>
       <c r="W35" s="4">
-        <f>ROW(A35)</f>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 35</v>
       </c>
       <c r="C36">
         <v>20000000009</v>
@@ -3096,62 +3096,62 @@
         <v>16</v>
       </c>
       <c r="L36" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 35\2022\09\PDF\</v>
       </c>
       <c r="M36" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N36" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O36" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P36" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 35</v>
       </c>
       <c r="Q36" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 35</v>
       </c>
       <c r="R36" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 35\2022\09\TXT\</v>
       </c>
       <c r="S36" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 35 SOS.txt</v>
       </c>
       <c r="T36" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 35 Alicuota SOS.txt</v>
       </c>
       <c r="U36" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 35 SOS.txt</v>
       </c>
       <c r="V36" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 35 Alicuota SOS.txt</v>
       </c>
       <c r="W36" s="4">
-        <f>ROW(A36)</f>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 36</v>
       </c>
       <c r="C37">
         <v>20000000009</v>
@@ -3169,62 +3169,62 @@
         <v>15</v>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 36\2022\09\PDF\</v>
       </c>
       <c r="M37" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N37" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O37" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P37" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 36</v>
       </c>
       <c r="Q37" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 36</v>
       </c>
       <c r="R37" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 36\2022\09\TXT\</v>
       </c>
       <c r="S37" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 36 SOS.txt</v>
       </c>
       <c r="T37" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 36 Alicuota SOS.txt</v>
       </c>
       <c r="U37" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 36 SOS.txt</v>
       </c>
       <c r="V37" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 36 Alicuota SOS.txt</v>
       </c>
       <c r="W37" s="4">
-        <f>ROW(A37)</f>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 37</v>
       </c>
       <c r="C38">
         <v>20000000009</v>
@@ -3242,62 +3242,62 @@
         <v>15</v>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 37\2022\09\PDF\</v>
       </c>
       <c r="M38" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N38" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O38" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P38" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 37</v>
       </c>
       <c r="Q38" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 37</v>
       </c>
       <c r="R38" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 37\2022\09\TXT\</v>
       </c>
       <c r="S38" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 37 SOS.txt</v>
       </c>
       <c r="T38" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 37 Alicuota SOS.txt</v>
       </c>
       <c r="U38" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 37 SOS.txt</v>
       </c>
       <c r="V38" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 37 Alicuota SOS.txt</v>
       </c>
       <c r="W38" s="4">
-        <f>ROW(A38)</f>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 38</v>
       </c>
       <c r="C39">
         <v>20000000009</v>
@@ -3315,62 +3315,62 @@
         <v>16</v>
       </c>
       <c r="L39" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 38\2022\09\PDF\</v>
       </c>
       <c r="M39" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N39" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O39" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P39" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 38</v>
       </c>
       <c r="Q39" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 38</v>
       </c>
       <c r="R39" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 38\2022\09\TXT\</v>
       </c>
       <c r="S39" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 38 SOS.txt</v>
       </c>
       <c r="T39" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 38 Alicuota SOS.txt</v>
       </c>
       <c r="U39" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 38 SOS.txt</v>
       </c>
       <c r="V39" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 38 Alicuota SOS.txt</v>
       </c>
       <c r="W39" s="4">
-        <f>ROW(A39)</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 39</v>
       </c>
       <c r="C40">
         <v>20000000009</v>
@@ -3388,62 +3388,62 @@
         <v>16</v>
       </c>
       <c r="L40" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 39\2022\09\PDF\</v>
       </c>
       <c r="M40" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N40" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O40" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P40" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 39</v>
       </c>
       <c r="Q40" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 39</v>
       </c>
       <c r="R40" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 39\2022\09\TXT\</v>
       </c>
       <c r="S40" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 39 SOS.txt</v>
       </c>
       <c r="T40" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 39 Alicuota SOS.txt</v>
       </c>
       <c r="U40" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 39 SOS.txt</v>
       </c>
       <c r="V40" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 39 Alicuota SOS.txt</v>
       </c>
       <c r="W40" s="4">
-        <f>ROW(A40)</f>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 40</v>
       </c>
       <c r="C41">
         <v>20000000009</v>
@@ -3461,62 +3461,62 @@
         <v>16</v>
       </c>
       <c r="L41" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 40\2022\09\PDF\</v>
       </c>
       <c r="M41" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N41" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O41" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P41" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 40</v>
       </c>
       <c r="Q41" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 40</v>
       </c>
       <c r="R41" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 40\2022\09\TXT\</v>
       </c>
       <c r="S41" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 40 SOS.txt</v>
       </c>
       <c r="T41" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 40 Alicuota SOS.txt</v>
       </c>
       <c r="U41" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 40 SOS.txt</v>
       </c>
       <c r="V41" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 40 Alicuota SOS.txt</v>
       </c>
       <c r="W41" s="4">
-        <f>ROW(A41)</f>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 41</v>
       </c>
       <c r="C42">
         <v>20000000009</v>
@@ -3534,62 +3534,62 @@
         <v>16</v>
       </c>
       <c r="L42" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 41\2022\09\PDF\</v>
       </c>
       <c r="M42" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N42" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O42" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P42" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 41</v>
       </c>
       <c r="Q42" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 41</v>
       </c>
       <c r="R42" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 41\2022\09\TXT\</v>
       </c>
       <c r="S42" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 41 SOS.txt</v>
       </c>
       <c r="T42" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 41 Alicuota SOS.txt</v>
       </c>
       <c r="U42" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 41 SOS.txt</v>
       </c>
       <c r="V42" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 41 Alicuota SOS.txt</v>
       </c>
       <c r="W42" s="4">
-        <f>ROW(A42)</f>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 42</v>
       </c>
       <c r="C43">
         <v>20000000009</v>
@@ -3607,62 +3607,62 @@
         <v>15</v>
       </c>
       <c r="L43" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 42\2022\09\PDF\</v>
       </c>
       <c r="M43" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N43" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O43" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P43" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 42</v>
       </c>
       <c r="Q43" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 42</v>
       </c>
       <c r="R43" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 42\2022\09\TXT\</v>
       </c>
       <c r="S43" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 42 SOS.txt</v>
       </c>
       <c r="T43" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 42 Alicuota SOS.txt</v>
       </c>
       <c r="U43" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 42 SOS.txt</v>
       </c>
       <c r="V43" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 42 Alicuota SOS.txt</v>
       </c>
       <c r="W43" s="4">
-        <f>ROW(A43)</f>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 43</v>
       </c>
       <c r="C44">
         <v>20000000009</v>
@@ -3680,62 +3680,62 @@
         <v>16</v>
       </c>
       <c r="L44" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 43\2022\09\PDF\</v>
       </c>
       <c r="M44" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N44" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O44" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P44" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 43</v>
       </c>
       <c r="Q44" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 43</v>
       </c>
       <c r="R44" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 43\2022\09\TXT\</v>
       </c>
       <c r="S44" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 43 SOS.txt</v>
       </c>
       <c r="T44" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 43 Alicuota SOS.txt</v>
       </c>
       <c r="U44" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 43 SOS.txt</v>
       </c>
       <c r="V44" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 43 Alicuota SOS.txt</v>
       </c>
       <c r="W44" s="4">
-        <f>ROW(A44)</f>
+        <f t="shared" si="15"/>
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 44</v>
       </c>
       <c r="C45">
         <v>20000000009</v>
@@ -3753,62 +3753,62 @@
         <v>15</v>
       </c>
       <c r="L45" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 44\2022\09\PDF\</v>
       </c>
       <c r="M45" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N45" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O45" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P45" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 44</v>
       </c>
       <c r="Q45" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 44</v>
       </c>
       <c r="R45" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 44\2022\09\TXT\</v>
       </c>
       <c r="S45" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 44 SOS.txt</v>
       </c>
       <c r="T45" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 44 Alicuota SOS.txt</v>
       </c>
       <c r="U45" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 44 SOS.txt</v>
       </c>
       <c r="V45" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 44 Alicuota SOS.txt</v>
       </c>
       <c r="W45" s="4">
-        <f>ROW(A45)</f>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 45</v>
       </c>
       <c r="C46">
         <v>20000000009</v>
@@ -3829,62 +3829,62 @@
         <v>15</v>
       </c>
       <c r="L46" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 45\2022\07\PDF\</v>
       </c>
       <c r="M46" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>07/2022</v>
       </c>
       <c r="N46" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Julio 2022</v>
       </c>
       <c r="O46" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202207</v>
       </c>
       <c r="P46" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202207 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202207 - Cliente - N° 45</v>
       </c>
       <c r="Q46" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202207 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202207 - Cliente - N° 45</v>
       </c>
       <c r="R46" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\07\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 45\2022\07\TXT\</v>
       </c>
       <c r="S46" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 45 SOS.txt</v>
       </c>
       <c r="T46" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 45 Alicuota SOS.txt</v>
       </c>
       <c r="U46" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 45 SOS.txt</v>
       </c>
       <c r="V46" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 45 Alicuota SOS.txt</v>
       </c>
       <c r="W46" s="4">
-        <f>ROW(A46)</f>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 46</v>
       </c>
       <c r="C47">
         <v>20000000009</v>
@@ -3902,62 +3902,62 @@
         <v>15</v>
       </c>
       <c r="L47" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 46\2022\09\PDF\</v>
       </c>
       <c r="M47" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N47" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O47" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P47" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 46</v>
       </c>
       <c r="Q47" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 46</v>
       </c>
       <c r="R47" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 46\2022\09\TXT\</v>
       </c>
       <c r="S47" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 46 SOS.txt</v>
       </c>
       <c r="T47" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 46 Alicuota SOS.txt</v>
       </c>
       <c r="U47" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 46 SOS.txt</v>
       </c>
       <c r="V47" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 46 Alicuota SOS.txt</v>
       </c>
       <c r="W47" s="4">
-        <f>ROW(A47)</f>
+        <f t="shared" si="15"/>
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 47</v>
       </c>
       <c r="C48">
         <v>20000000009</v>
@@ -3975,62 +3975,62 @@
         <v>15</v>
       </c>
       <c r="L48" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 47\2022\09\PDF\</v>
       </c>
       <c r="M48" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N48" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O48" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P48" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 47</v>
       </c>
       <c r="Q48" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 47</v>
       </c>
       <c r="R48" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 47\2022\09\TXT\</v>
       </c>
       <c r="S48" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 47 SOS.txt</v>
       </c>
       <c r="T48" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 47 Alicuota SOS.txt</v>
       </c>
       <c r="U48" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 47 SOS.txt</v>
       </c>
       <c r="V48" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 47 Alicuota SOS.txt</v>
       </c>
       <c r="W48" s="4">
-        <f>ROW(A48)</f>
+        <f t="shared" si="15"/>
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 48</v>
       </c>
       <c r="C49">
         <v>20000000009</v>
@@ -4051,62 +4051,62 @@
         <v>14</v>
       </c>
       <c r="L49" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 48\2022\09\PDF\</v>
       </c>
       <c r="M49" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N49" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O49" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P49" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 48</v>
       </c>
       <c r="Q49" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 48</v>
       </c>
       <c r="R49" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 48\2022\09\TXT\</v>
       </c>
       <c r="S49" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 48 SOS.txt</v>
       </c>
       <c r="T49" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 48 Alicuota SOS.txt</v>
       </c>
       <c r="U49" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 48 SOS.txt</v>
       </c>
       <c r="V49" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 48 Alicuota SOS.txt</v>
       </c>
       <c r="W49" s="4">
-        <f>ROW(A49)</f>
+        <f t="shared" si="15"/>
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 49</v>
       </c>
       <c r="C50">
         <v>20000000009</v>
@@ -4124,62 +4124,62 @@
         <v>16</v>
       </c>
       <c r="L50" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 49\2022\09\PDF\</v>
       </c>
       <c r="M50" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N50" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O50" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P50" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 49</v>
       </c>
       <c r="Q50" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 49</v>
       </c>
       <c r="R50" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 49\2022\09\TXT\</v>
       </c>
       <c r="S50" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 49 SOS.txt</v>
       </c>
       <c r="T50" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 49 Alicuota SOS.txt</v>
       </c>
       <c r="U50" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 49 SOS.txt</v>
       </c>
       <c r="V50" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 49 Alicuota SOS.txt</v>
       </c>
       <c r="W50" s="4">
-        <f>ROW(A50)</f>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 50</v>
       </c>
       <c r="C51">
         <v>20000000009</v>
@@ -4197,62 +4197,62 @@
         <v>16</v>
       </c>
       <c r="L51" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 50\2022\09\PDF\</v>
       </c>
       <c r="M51" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N51" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O51" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P51" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 50</v>
       </c>
       <c r="Q51" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 50</v>
       </c>
       <c r="R51" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 50\2022\09\TXT\</v>
       </c>
       <c r="S51" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 50 SOS.txt</v>
       </c>
       <c r="T51" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 50 Alicuota SOS.txt</v>
       </c>
       <c r="U51" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 50 SOS.txt</v>
       </c>
       <c r="V51" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 50 Alicuota SOS.txt</v>
       </c>
       <c r="W51" s="4">
-        <f>ROW(A51)</f>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 51</v>
       </c>
       <c r="C52">
         <v>20000000009</v>
@@ -4270,62 +4270,62 @@
         <v>16</v>
       </c>
       <c r="L52" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 51\2022\09\PDF\</v>
       </c>
       <c r="M52" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N52" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O52" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P52" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 51</v>
       </c>
       <c r="Q52" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 51</v>
       </c>
       <c r="R52" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 51\2022\09\TXT\</v>
       </c>
       <c r="S52" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 51 SOS.txt</v>
       </c>
       <c r="T52" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 51 Alicuota SOS.txt</v>
       </c>
       <c r="U52" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 51 SOS.txt</v>
       </c>
       <c r="V52" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 51 Alicuota SOS.txt</v>
       </c>
       <c r="W52" s="4">
-        <f>ROW(A52)</f>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 52</v>
       </c>
       <c r="C53">
         <v>20000000009</v>
@@ -4343,62 +4343,62 @@
         <v>16</v>
       </c>
       <c r="L53" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 52\2022\09\PDF\</v>
       </c>
       <c r="M53" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N53" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O53" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P53" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 52</v>
       </c>
       <c r="Q53" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 52</v>
       </c>
       <c r="R53" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 52\2022\09\TXT\</v>
       </c>
       <c r="S53" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 52 SOS.txt</v>
       </c>
       <c r="T53" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 52 Alicuota SOS.txt</v>
       </c>
       <c r="U53" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 52 SOS.txt</v>
       </c>
       <c r="V53" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 52 Alicuota SOS.txt</v>
       </c>
       <c r="W53" s="4">
-        <f>ROW(A53)</f>
+        <f t="shared" si="15"/>
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 53</v>
       </c>
       <c r="C54">
         <v>20000000009</v>
@@ -4416,62 +4416,62 @@
         <v>16</v>
       </c>
       <c r="L54" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 53\2022\09\PDF\</v>
       </c>
       <c r="M54" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N54" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O54" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P54" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 53</v>
       </c>
       <c r="Q54" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 53</v>
       </c>
       <c r="R54" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 53\2022\09\TXT\</v>
       </c>
       <c r="S54" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 53 SOS.txt</v>
       </c>
       <c r="T54" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 53 Alicuota SOS.txt</v>
       </c>
       <c r="U54" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 53 SOS.txt</v>
       </c>
       <c r="V54" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 53 Alicuota SOS.txt</v>
       </c>
       <c r="W54" s="4">
-        <f>ROW(A54)</f>
+        <f t="shared" si="15"/>
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 54</v>
       </c>
       <c r="C55">
         <v>20000000009</v>
@@ -4489,62 +4489,62 @@
         <v>15</v>
       </c>
       <c r="L55" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 54\2022\09\PDF\</v>
       </c>
       <c r="M55" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N55" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O55" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P55" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 54</v>
       </c>
       <c r="Q55" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 54</v>
       </c>
       <c r="R55" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 54\2022\09\TXT\</v>
       </c>
       <c r="S55" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 54 SOS.txt</v>
       </c>
       <c r="T55" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 54 Alicuota SOS.txt</v>
       </c>
       <c r="U55" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 54 SOS.txt</v>
       </c>
       <c r="V55" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 54 Alicuota SOS.txt</v>
       </c>
       <c r="W55" s="4">
-        <f>ROW(A55)</f>
+        <f t="shared" si="15"/>
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 55</v>
       </c>
       <c r="C56">
         <v>20000000009</v>
@@ -4562,62 +4562,62 @@
         <v>15</v>
       </c>
       <c r="L56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 55\2022\09\PDF\</v>
       </c>
       <c r="M56" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N56" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O56" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P56" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 55</v>
       </c>
       <c r="Q56" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 55</v>
       </c>
       <c r="R56" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 55\2022\09\TXT\</v>
       </c>
       <c r="S56" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 55 SOS.txt</v>
       </c>
       <c r="T56" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 55 Alicuota SOS.txt</v>
       </c>
       <c r="U56" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 55 SOS.txt</v>
       </c>
       <c r="V56" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 55 Alicuota SOS.txt</v>
       </c>
       <c r="W56" s="4">
-        <f>ROW(A56)</f>
+        <f t="shared" si="15"/>
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 56</v>
       </c>
       <c r="C57">
         <v>20000000009</v>
@@ -4635,62 +4635,62 @@
         <v>15</v>
       </c>
       <c r="L57" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 56\2022\09\PDF\</v>
       </c>
       <c r="M57" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N57" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O57" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P57" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 56</v>
       </c>
       <c r="Q57" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 56</v>
       </c>
       <c r="R57" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 56\2022\09\TXT\</v>
       </c>
       <c r="S57" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 56 SOS.txt</v>
       </c>
       <c r="T57" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 56 Alicuota SOS.txt</v>
       </c>
       <c r="U57" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 56 SOS.txt</v>
       </c>
       <c r="V57" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 56 Alicuota SOS.txt</v>
       </c>
       <c r="W57" s="4">
-        <f>ROW(A57)</f>
+        <f t="shared" si="15"/>
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 57</v>
       </c>
       <c r="C58">
         <v>20000000009</v>
@@ -4708,62 +4708,62 @@
         <v>16</v>
       </c>
       <c r="L58" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 57\2022\09\PDF\</v>
       </c>
       <c r="M58" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N58" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O58" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P58" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 57</v>
       </c>
       <c r="Q58" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 57</v>
       </c>
       <c r="R58" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 57\2022\09\TXT\</v>
       </c>
       <c r="S58" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 57 SOS.txt</v>
       </c>
       <c r="T58" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 57 Alicuota SOS.txt</v>
       </c>
       <c r="U58" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 57 SOS.txt</v>
       </c>
       <c r="V58" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 57 Alicuota SOS.txt</v>
       </c>
       <c r="W58" s="4">
-        <f>ROW(A58)</f>
+        <f t="shared" si="15"/>
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 58</v>
       </c>
       <c r="C59">
         <v>20000000009</v>
@@ -4781,62 +4781,62 @@
         <v>16</v>
       </c>
       <c r="L59" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 58\2022\09\PDF\</v>
       </c>
       <c r="M59" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N59" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O59" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P59" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 58</v>
       </c>
       <c r="Q59" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 58</v>
       </c>
       <c r="R59" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 58\2022\09\TXT\</v>
       </c>
       <c r="S59" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 58 SOS.txt</v>
       </c>
       <c r="T59" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 58 Alicuota SOS.txt</v>
       </c>
       <c r="U59" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 58 SOS.txt</v>
       </c>
       <c r="V59" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 58 Alicuota SOS.txt</v>
       </c>
       <c r="W59" s="4">
-        <f>ROW(A59)</f>
+        <f t="shared" si="15"/>
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 59</v>
       </c>
       <c r="C60">
         <v>20000000009</v>
@@ -4854,62 +4854,62 @@
         <v>15</v>
       </c>
       <c r="L60" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 59\2022\09\PDF\</v>
       </c>
       <c r="M60" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N60" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O60" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P60" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 59</v>
       </c>
       <c r="Q60" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 59</v>
       </c>
       <c r="R60" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 59\2022\09\TXT\</v>
       </c>
       <c r="S60" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 59 SOS.txt</v>
       </c>
       <c r="T60" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 59 Alicuota SOS.txt</v>
       </c>
       <c r="U60" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 59 SOS.txt</v>
       </c>
       <c r="V60" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 59 Alicuota SOS.txt</v>
       </c>
       <c r="W60" s="4">
-        <f>ROW(A60)</f>
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 60</v>
       </c>
       <c r="C61">
         <v>20000000009</v>
@@ -4927,62 +4927,62 @@
         <v>16</v>
       </c>
       <c r="L61" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 60\2022\09\PDF\</v>
       </c>
       <c r="M61" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N61" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O61" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P61" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 60</v>
       </c>
       <c r="Q61" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 60</v>
       </c>
       <c r="R61" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 60\2022\09\TXT\</v>
       </c>
       <c r="S61" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 60 SOS.txt</v>
       </c>
       <c r="T61" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 60 Alicuota SOS.txt</v>
       </c>
       <c r="U61" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 60 SOS.txt</v>
       </c>
       <c r="V61" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 60 Alicuota SOS.txt</v>
       </c>
       <c r="W61" s="4">
-        <f>ROW(A61)</f>
+        <f t="shared" si="15"/>
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 61</v>
       </c>
       <c r="C62">
         <v>20000000009</v>
@@ -5000,62 +5000,62 @@
         <v>15</v>
       </c>
       <c r="L62" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 61\2022\09\PDF\</v>
       </c>
       <c r="M62" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N62" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O62" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P62" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 61</v>
       </c>
       <c r="Q62" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 61</v>
       </c>
       <c r="R62" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 61\2022\09\TXT\</v>
       </c>
       <c r="S62" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 61 SOS.txt</v>
       </c>
       <c r="T62" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 61 Alicuota SOS.txt</v>
       </c>
       <c r="U62" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 61 SOS.txt</v>
       </c>
       <c r="V62" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 61 Alicuota SOS.txt</v>
       </c>
       <c r="W62" s="4">
-        <f>ROW(A62)</f>
+        <f t="shared" si="15"/>
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 62</v>
       </c>
       <c r="C63">
         <v>20000000009</v>
@@ -5073,62 +5073,62 @@
         <v>16</v>
       </c>
       <c r="L63" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 62\2022\09\PDF\</v>
       </c>
       <c r="M63" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N63" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O63" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P63" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 62</v>
       </c>
       <c r="Q63" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 62</v>
       </c>
       <c r="R63" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 62\2022\09\TXT\</v>
       </c>
       <c r="S63" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 62 SOS.txt</v>
       </c>
       <c r="T63" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 62 Alicuota SOS.txt</v>
       </c>
       <c r="U63" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 62 SOS.txt</v>
       </c>
       <c r="V63" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 62 Alicuota SOS.txt</v>
       </c>
       <c r="W63" s="4">
-        <f>ROW(A63)</f>
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 63</v>
       </c>
       <c r="C64">
         <v>20000000009</v>
@@ -5146,62 +5146,62 @@
         <v>15</v>
       </c>
       <c r="L64" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 63\2022\09\PDF\</v>
       </c>
       <c r="M64" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N64" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O64" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P64" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 63</v>
       </c>
       <c r="Q64" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 63</v>
       </c>
       <c r="R64" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 63\2022\09\TXT\</v>
       </c>
       <c r="S64" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 63 SOS.txt</v>
       </c>
       <c r="T64" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 63 Alicuota SOS.txt</v>
       </c>
       <c r="U64" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 63 SOS.txt</v>
       </c>
       <c r="V64" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 63 Alicuota SOS.txt</v>
       </c>
       <c r="W64" s="4">
-        <f>ROW(A64)</f>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 64</v>
       </c>
       <c r="C65">
         <v>20000000009</v>
@@ -5219,62 +5219,62 @@
         <v>15</v>
       </c>
       <c r="L65" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 64\2022\09\PDF\</v>
       </c>
       <c r="M65" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N65" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O65" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P65" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 64</v>
       </c>
       <c r="Q65" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 64</v>
       </c>
       <c r="R65" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 64\2022\09\TXT\</v>
       </c>
       <c r="S65" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 64 SOS.txt</v>
       </c>
       <c r="T65" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 64 Alicuota SOS.txt</v>
       </c>
       <c r="U65" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 64 SOS.txt</v>
       </c>
       <c r="V65" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 64 Alicuota SOS.txt</v>
       </c>
       <c r="W65" s="4">
-        <f>ROW(A65)</f>
+        <f t="shared" si="15"/>
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="1"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="2"/>
+        <v>Cliente - N° 65</v>
       </c>
       <c r="C66">
         <v>20000000009</v>
@@ -5292,62 +5292,62 @@
         <v>16</v>
       </c>
       <c r="L66" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" si="3"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 65\2022\09\PDF\</v>
       </c>
       <c r="M66" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N66" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Septiembre 2022</v>
       </c>
       <c r="O66" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202209</v>
       </c>
       <c r="P66" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="6"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 65</v>
       </c>
       <c r="Q66" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" si="7"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 65</v>
       </c>
       <c r="R66" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" si="8"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 65\2022\09\TXT\</v>
       </c>
       <c r="S66" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="9"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 65 SOS.txt</v>
       </c>
       <c r="T66" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="10"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 65 Alicuota SOS.txt</v>
       </c>
       <c r="U66" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" si="11"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 65 SOS.txt</v>
       </c>
       <c r="V66" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" si="12"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 65 Alicuota SOS.txt</v>
       </c>
       <c r="W66" s="4">
-        <f>ROW(A66)</f>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B69" si="14">"XXXXXX - "&amp;A67</f>
-        <v>XXXXXX - 0</v>
+        <f t="shared" ref="B67:B69" si="16">"Cliente - N° "&amp;W67-1</f>
+        <v>Cliente - N° 66</v>
       </c>
       <c r="C67">
         <v>20000000009</v>
@@ -5365,62 +5365,62 @@
         <v>16</v>
       </c>
       <c r="L67" s="4" t="str">
-        <f t="shared" ref="L67:L69" si="15">K67&amp;"\Libros Compras y Ventas\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\PDF\"</f>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
+        <f t="shared" ref="L67:L69" si="17">K67&amp;"\Libros Compras y Ventas\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\PDF\"</f>
+        <v>\Libros Compras y Ventas\Cliente - N° 66\2022\09\PDF\</v>
       </c>
       <c r="M67" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>09/2022</v>
       </c>
       <c r="N67" s="2" t="str">
-        <f t="shared" ref="N67:N69" si="16">PROPER(TEXT(E67,"mmmm"))&amp;" "&amp;YEAR(E67)</f>
+        <f t="shared" ref="N67:N69" si="18">PROPER(TEXT(E67,"mmmm"))&amp;" "&amp;YEAR(E67)</f>
         <v>Septiembre 2022</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f t="shared" ref="O67:O69" si="17">YEAR(E67)&amp;TEXT(MONTH(E67),"00")</f>
+        <f t="shared" ref="O67:O69" si="19">YEAR(E67)&amp;TEXT(MONTH(E67),"00")</f>
         <v>202209</v>
       </c>
       <c r="P67" s="2" t="str">
-        <f t="shared" ref="P67:P69" si="18">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIV - ",O67," - ",B67)</f>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
+        <f t="shared" ref="P67:P69" si="20">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIV - ",O67," - ",B67)</f>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 66</v>
       </c>
       <c r="Q67" s="2" t="str">
-        <f t="shared" ref="Q67:Q69" si="19">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIC - ",O67," - ",B67)</f>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
+        <f t="shared" ref="Q67:Q69" si="21">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIC - ",O67," - ",B67)</f>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 66</v>
       </c>
       <c r="R67" s="4" t="str">
-        <f t="shared" ref="R67:R69" si="20">K67&amp;"\Libros Compras y Ventas\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\TXT\"</f>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
+        <f t="shared" ref="R67:R69" si="22">K67&amp;"\Libros Compras y Ventas\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\TXT\"</f>
+        <v>\Libros Compras y Ventas\Cliente - N° 66\2022\09\TXT\</v>
       </c>
       <c r="S67" s="4" t="str">
-        <f t="shared" ref="S67:S69" si="21">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIV - ",TEXT(O67,"AAAAMM")," - ",B67," SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" ref="S67:S69" si="23">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIV - ",TEXT(O67,"AAAAMM")," - ",B67," SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 66 SOS.txt</v>
       </c>
       <c r="T67" s="4" t="str">
-        <f t="shared" ref="T67:T69" si="22">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIV - ",TEXT(O67,"AAAAMM")," - ",B67," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" ref="T67:T69" si="24">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIV - ",TEXT(O67,"AAAAMM")," - ",B67," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 66 Alicuota SOS.txt</v>
       </c>
       <c r="U67" s="4" t="str">
-        <f t="shared" ref="U67:U69" si="23">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIC - ",TEXT(O67,"AAAAMM")," - ",B67," SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
+        <f t="shared" ref="U67:U69" si="25">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIC - ",TEXT(O67,"AAAAMM")," - ",B67," SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 66 SOS.txt</v>
       </c>
       <c r="V67" s="4" t="str">
-        <f t="shared" ref="V67:V69" si="24">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIC - ",TEXT(O67,"AAAAMM")," - ",B67," Alicuota SOS.txt")</f>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
+        <f t="shared" ref="V67:V69" si="26">CONCATENATE(A67," - ",SUBSTITUTE(D67,"-","")," - ","LIC - ",TEXT(O67,"AAAAMM")," - ",B67," Alicuota SOS.txt")</f>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 66 Alicuota SOS.txt</v>
       </c>
       <c r="W67" s="4">
-        <f>ROW(A67)</f>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="14"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="16"/>
+        <v>Cliente - N° 67</v>
       </c>
       <c r="C68">
         <v>20000000009</v>
@@ -5438,62 +5438,62 @@
         <v>16</v>
       </c>
       <c r="L68" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 67\2022\09\PDF\</v>
+      </c>
+      <c r="M68" s="4" t="str">
+        <f t="shared" ref="M68:M69" si="27">TEXT(MONTH(E68),"00")&amp;"/"&amp;YEAR(E68)</f>
+        <v>09/2022</v>
+      </c>
+      <c r="N68" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O68" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>202209</v>
+      </c>
+      <c r="P68" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 67</v>
+      </c>
+      <c r="Q68" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 67</v>
+      </c>
+      <c r="R68" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 67\2022\09\TXT\</v>
+      </c>
+      <c r="S68" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 67 SOS.txt</v>
+      </c>
+      <c r="T68" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 67 Alicuota SOS.txt</v>
+      </c>
+      <c r="U68" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 67 SOS.txt</v>
+      </c>
+      <c r="V68" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 67 Alicuota SOS.txt</v>
+      </c>
+      <c r="W68" s="4">
         <f t="shared" si="15"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
-      </c>
-      <c r="M68" s="4" t="str">
-        <f t="shared" ref="M68:M69" si="25">TEXT(MONTH(E68),"00")&amp;"/"&amp;YEAR(E68)</f>
-        <v>09/2022</v>
-      </c>
-      <c r="N68" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O68" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>202209</v>
-      </c>
-      <c r="P68" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q68" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R68" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
-      </c>
-      <c r="S68" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
-      </c>
-      <c r="T68" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
-      </c>
-      <c r="U68" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
-      </c>
-      <c r="V68" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
-      </c>
-      <c r="W68" s="4">
-        <f>ROW(A68)</f>
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="14"/>
-        <v>XXXXXX - 0</v>
+        <f t="shared" si="16"/>
+        <v>Cliente - N° 68</v>
       </c>
       <c r="C69">
         <v>20000000009</v>
@@ -5511,51 +5511,51 @@
         <v>16</v>
       </c>
       <c r="L69" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 68\2022\09\PDF\</v>
+      </c>
+      <c r="M69" s="4" t="str">
+        <f t="shared" si="27"/>
+        <v>09/2022</v>
+      </c>
+      <c r="N69" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>Septiembre 2022</v>
+      </c>
+      <c r="O69" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>202209</v>
+      </c>
+      <c r="P69" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>0 - 30000000000 - LIV - 202209 - Cliente - N° 68</v>
+      </c>
+      <c r="Q69" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>0 - 30000000000 - LIC - 202209 - Cliente - N° 68</v>
+      </c>
+      <c r="R69" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>\Libros Compras y Ventas\Cliente - N° 68\2022\09\TXT\</v>
+      </c>
+      <c r="S69" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 68 SOS.txt</v>
+      </c>
+      <c r="T69" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>0 - 30000000000 - LIV - 245308 - Cliente - N° 68 Alicuota SOS.txt</v>
+      </c>
+      <c r="U69" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 68 SOS.txt</v>
+      </c>
+      <c r="V69" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0 - 30000000000 - LIC - 245308 - Cliente - N° 68 Alicuota SOS.txt</v>
+      </c>
+      <c r="W69" s="4">
         <f t="shared" si="15"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\PDF\</v>
-      </c>
-      <c r="M69" s="4" t="str">
-        <f t="shared" si="25"/>
-        <v>09/2022</v>
-      </c>
-      <c r="N69" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>Septiembre 2022</v>
-      </c>
-      <c r="O69" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>202209</v>
-      </c>
-      <c r="P69" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0 - 30000000000 - LIV - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="Q69" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>0 - 30000000000 - LIC - 202209 - XXXXXX - 0</v>
-      </c>
-      <c r="R69" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v>\Libros Compras y Ventas\XXXXXX - 0\2022\09\TXT\</v>
-      </c>
-      <c r="S69" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 SOS.txt</v>
-      </c>
-      <c r="T69" s="4" t="str">
-        <f t="shared" si="22"/>
-        <v>0 - 30000000000 - LIV - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
-      </c>
-      <c r="U69" s="4" t="str">
-        <f t="shared" si="23"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 SOS.txt</v>
-      </c>
-      <c r="V69" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>0 - 30000000000 - LIC - 245308 - XXXXXX - 0 Alicuota SOS.txt</v>
-      </c>
-      <c r="W69" s="4">
-        <f>ROW(A69)</f>
         <v>69</v>
       </c>
     </row>
